--- a/outcome/appendix/data/PHSMs/Pertussis.xlsx
+++ b/outcome/appendix/data/PHSMs/Pertussis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">百日咳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +442,16 @@
         <v>1850.73367618026</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>1141</v>
+      </c>
+      <c r="I2" t="n">
+        <v>304.069925885874</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +474,16 @@
         <v>2346.72246285473</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>738</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1015.34701709692</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +506,16 @@
         <v>3822.03774298399</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>874</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2276.22564378542</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +538,16 @@
         <v>3801.31969640303</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>479</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2625.22564378542</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +570,16 @@
         <v>4265.71628111905</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>277</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3267.22564378542</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +602,16 @@
         <v>4288.31447159412</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>159</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3384.22564378542</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +634,16 @@
         <v>4818.18787130093</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>142</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3908.22564378542</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +666,16 @@
         <v>5593.39942496007</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>131</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4672.22564378542</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +698,16 @@
         <v>4546.00346192354</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>201</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3533.22564378542</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +730,16 @@
         <v>3181.04726189241</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>267</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2081.22564378542</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +762,16 @@
         <v>2921.57227274202</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>291</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1777.22564378542</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +794,16 @@
         <v>2702.61507051146</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>294</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1535.22564378542</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +826,16 @@
         <v>2915.24354500724</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>205</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1655.29556967129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +858,16 @@
         <v>3391.75652433819</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>115</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2053.57266088233</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +890,16 @@
         <v>4887.28068954866</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>220</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3345.45128757084</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +922,16 @@
         <v>4892.64736031283</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>308</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3211.45128757084</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +954,16 @@
         <v>5382.16065369416</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>427</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3532.45128757084</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +986,16 @@
         <v>5429.00778995898</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>519</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3439.45128757084</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1018,16 @@
         <v>5982.34644313599</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>820</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3645.45128757084</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1050,16 @@
         <v>6780.31088408969</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>1227</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3991.45128757084</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1082,16 @@
         <v>5755.01657291399</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>1094</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3055.45128757084</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1114,16 @@
         <v>4411.56365381291</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>825</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1938.45128757084</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1146,16 @@
         <v>4173.03965697358</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>1148</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1335.45128757084</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1178,16 @@
         <v>3974.52161685865</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>2254</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-9.54871242916124</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1210,16 @@
         <v>4172.36327040473</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>2354</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-78.4787865432882</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1242,16 @@
         <v>4644.43479787044</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>2576</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7.79830466775411</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1274,16 @@
         <v>6152.84435848436</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>3747</v>
+      </c>
+      <c r="I28" t="n">
+        <v>233.676931356259</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1306,16 @@
         <v>6177.39602334338</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>3415</v>
+      </c>
+      <c r="I29" t="n">
+        <v>519.676931356258</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1338,16 @@
         <v>6685.79495509516</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>3991</v>
+      </c>
+      <c r="I30" t="n">
+        <v>383.676931356258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1370,16 @@
         <v>6751.22695474968</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>4213</v>
+      </c>
+      <c r="I31" t="n">
+        <v>160.676931356258</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1402,16 @@
         <v>7322.85254089487</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>4234</v>
+      </c>
+      <c r="I32" t="n">
+        <v>646.676931356258</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1434,16 @@
         <v>8138.81151894084</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>5355</v>
+      </c>
+      <c r="I33" t="n">
+        <v>278.676931356258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1466,16 @@
         <v>7131.2265404618</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>3849</v>
+      </c>
+      <c r="I34" t="n">
+        <v>715.676931356258</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1498,16 @@
         <v>5805.2059127473</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>2594</v>
+      </c>
+      <c r="I35" t="n">
+        <v>584.676931356258</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1530,16 @@
         <v>5583.84584302165</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>2160</v>
+      </c>
+      <c r="I36" t="n">
+        <v>738.676931356258</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
